--- a/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_BC.xlsx
+++ b/csv/policies/reference/Ref_coal phase out/formula_Ref_coal phase out_BC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\policies\reference\Ref_coal phase out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10434FE2-F396-4FA1-B0E7-15D2CAC083AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C4A7DB-8A95-4D03-A928-5CA1D20C678E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40545" yWindow="3660" windowWidth="17280" windowHeight="8880" xr2:uid="{38F4AF5F-93BF-4E80-94E9-8087D06A3354}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6AA487B-CAB4-4F00-A60D-CC2C2EDC2186}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>&lt;-- Navigate by typing to search</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>CIMS.CAN.BC.Electricity.Utility Generation.Shoulder Load</t>
+  </si>
+  <si>
+    <t>Shoulder Load</t>
   </si>
 </sst>
 </file>
@@ -475,21 +481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE021154-2556-4FB6-9EEB-55F36A3D0D5A}">
-  <dimension ref="A1:X4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401CA2E8-56C5-4443-8943-204B9F7C314F}">
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:X4"/>
+      <selection sqref="A1:X6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -563,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -622,7 +628,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -682,6 +688,128 @@
       </c>
       <c r="W4">
         <f>V4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5">
+        <v>2021</v>
+      </c>
+      <c r="N5">
+        <v>2021</v>
+      </c>
+      <c r="O5">
+        <v>2021</v>
+      </c>
+      <c r="P5">
+        <v>2021</v>
+      </c>
+      <c r="Q5">
+        <v>2021</v>
+      </c>
+      <c r="R5">
+        <v>2021</v>
+      </c>
+      <c r="S5">
+        <v>2021</v>
+      </c>
+      <c r="T5">
+        <v>2021</v>
+      </c>
+      <c r="U5">
+        <v>2021</v>
+      </c>
+      <c r="V5">
+        <v>2021</v>
+      </c>
+      <c r="W5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.3</v>
+      </c>
+      <c r="R6">
+        <v>0.5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>S6</f>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>T6</f>
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <f>U6</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>V6</f>
         <v>1</v>
       </c>
     </row>
